--- a/SDG Financing Simplified model (Egypt)/v7/output/modeloutput_arg.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v7/output/modeloutput_arg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v6\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F16DBC-4EA6-48D4-9243-FBBDDA7289BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39270" yWindow="2085" windowWidth="17250" windowHeight="9945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView yWindow="2085" windowWidth="17250" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,12 +103,12 @@
     <t>2050</t>
   </si>
   <si>
+    <t>Output</t>
+  </si>
+  <si>
     <t>Output per Capita</t>
   </si>
   <si>
-    <t>Output</t>
-  </si>
-  <si>
     <t>Consumption per Capita</t>
   </si>
   <si>
@@ -130,34 +124,370 @@
     <t>Energy Capital - Renewables</t>
   </si>
   <si>
+    <t>Total Capital</t>
+  </si>
+  <si>
     <t>Fossil Fuel Cost</t>
-  </si>
-  <si>
-    <t>Total Capital</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -165,13 +495,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -179,17 +751,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -447,19 +1063,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.66363636363636" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,186 +1168,186 @@
     </row>
     <row r="2" spans="1:30">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2">
-        <v>320.44028718343145</v>
+        <v>320.440287183431</v>
       </c>
       <c r="C2">
-        <v>337.39110597958603</v>
+        <v>338.195834736183</v>
       </c>
       <c r="D2">
-        <v>354.39078629186923</v>
+        <v>356.100124784405</v>
       </c>
       <c r="E2">
-        <v>371.49690008589005</v>
+        <v>374.217416515546</v>
       </c>
       <c r="F2">
-        <v>388.67414012406209</v>
+        <v>392.508884343181</v>
       </c>
       <c r="G2">
-        <v>402.60462703282064</v>
+        <v>407.601117905251</v>
       </c>
       <c r="H2">
-        <v>415.84609696161073</v>
+        <v>422.064791063357</v>
       </c>
       <c r="I2">
-        <v>428.49294069402976</v>
+        <v>435.963206113669</v>
       </c>
       <c r="J2">
-        <v>440.86041911042986</v>
+        <v>449.452430950995</v>
       </c>
       <c r="K2">
-        <v>453.35038237272835</v>
+        <v>462.992437811545</v>
       </c>
       <c r="L2">
-        <v>465.60608103551465</v>
+        <v>476.156679339216</v>
       </c>
       <c r="M2">
-        <v>477.41342817079897</v>
+        <v>488.651620747802</v>
       </c>
       <c r="N2">
-        <v>488.85217451129802</v>
+        <v>500.470787921104</v>
       </c>
       <c r="O2">
-        <v>500.00588430245398</v>
+        <v>511.593744187978</v>
       </c>
       <c r="P2">
-        <v>510.92584300424653</v>
+        <v>521.945199387187</v>
       </c>
       <c r="Q2">
-        <v>521.59463751106875</v>
+        <v>531.342778459699</v>
       </c>
       <c r="R2">
-        <v>532.08607114544475</v>
+        <v>539.61810965181</v>
       </c>
       <c r="S2">
-        <v>542.40610729710227</v>
+        <v>546.542129977555</v>
       </c>
       <c r="T2">
-        <v>552.56689104121256</v>
+        <v>551.830588087478</v>
       </c>
       <c r="U2">
-        <v>562.32880265162942</v>
+        <v>555.292276253806</v>
       </c>
       <c r="V2">
-        <v>572.07078422001871</v>
+        <v>558.776561807264</v>
       </c>
       <c r="W2">
-        <v>581.84525535107321</v>
+        <v>562.299806982673</v>
       </c>
       <c r="X2">
-        <v>591.40746415774709</v>
+        <v>565.590854124377</v>
       </c>
       <c r="Y2">
-        <v>600.58999797451236</v>
+        <v>568.483491428918</v>
       </c>
       <c r="Z2">
-        <v>609.97822069640915</v>
+        <v>571.535412037134</v>
       </c>
       <c r="AA2">
-        <v>619.78397247087912</v>
+        <v>574.888849249313</v>
       </c>
       <c r="AB2">
-        <v>629.99281511814922</v>
+        <v>578.459647203548</v>
       </c>
       <c r="AC2">
-        <v>640.60675045310938</v>
+        <v>582.186831980577</v>
       </c>
       <c r="AD2">
-        <v>651.62118566094534</v>
+        <v>586.00893494873</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3">
-        <v>7.2098224643115687</v>
+        <v>7.20982246431157</v>
       </c>
       <c r="C3">
-        <v>7.4937812028209878</v>
+        <v>7.51165500305661</v>
       </c>
       <c r="D3">
-        <v>7.7648529204902115</v>
+        <v>7.80230525418306</v>
       </c>
       <c r="E3">
-        <v>8.0233264267075182</v>
+        <v>8.08208221002443</v>
       </c>
       <c r="F3">
-        <v>8.2707242746509451</v>
+        <v>8.35232505233587</v>
       </c>
       <c r="G3">
-        <v>8.4378834619133158</v>
+        <v>8.54260110515253</v>
       </c>
       <c r="H3">
-        <v>8.5828581610165973</v>
+        <v>8.71120893745051</v>
       </c>
       <c r="I3">
-        <v>8.7083437354081621</v>
+        <v>8.86016336390328</v>
       </c>
       <c r="J3">
-        <v>8.8215216514988537</v>
+        <v>8.9934459504287</v>
       </c>
       <c r="K3">
-        <v>8.9335900145331379</v>
+        <v>9.12359353837921</v>
       </c>
       <c r="L3">
-        <v>9.0377716043388343</v>
+        <v>9.24256681995524</v>
       </c>
       <c r="M3">
-        <v>9.130328789061533</v>
+        <v>9.34525444294598</v>
       </c>
       <c r="N3">
-        <v>9.2136215798409697</v>
+        <v>9.43260292598602</v>
       </c>
       <c r="O3">
-        <v>9.2896528356612489</v>
+        <v>9.50494469286603</v>
       </c>
       <c r="P3">
-        <v>9.3621853010526124</v>
+        <v>9.56410355938303</v>
       </c>
       <c r="Q3">
-        <v>9.4311985673437171</v>
+        <v>9.60745929998407</v>
       </c>
       <c r="R3">
-        <v>9.4982584131592205</v>
+        <v>9.63271269037288</v>
       </c>
       <c r="S3">
-        <v>9.5637205246903569</v>
+        <v>9.63664699890861</v>
       </c>
       <c r="T3">
-        <v>9.6279855218182799</v>
+        <v>9.61515609918516</v>
       </c>
       <c r="U3">
-        <v>9.6895947581380817</v>
+        <v>9.56834703086827</v>
       </c>
       <c r="V3">
-        <v>9.7554015149142845</v>
+        <v>9.52869796520963</v>
       </c>
       <c r="W3">
-        <v>9.8263677903560662</v>
+        <v>9.49627871163798</v>
       </c>
       <c r="X3">
-        <v>9.8984157615588746</v>
+        <v>9.46632189201621</v>
       </c>
       <c r="Y3">
-        <v>9.9688391536272167</v>
+        <v>9.43592218761492</v>
       </c>
       <c r="Z3">
-        <v>10.046469329257627</v>
+        <v>9.41330820149639</v>
       </c>
       <c r="AA3">
-        <v>10.134656209531675</v>
+        <v>9.40053487121888</v>
       </c>
       <c r="AB3">
-        <v>10.233017272002483</v>
+        <v>9.39596042834273</v>
       </c>
       <c r="AC3">
-        <v>10.341406861181209</v>
+        <v>9.39832571928849</v>
       </c>
       <c r="AD3">
-        <v>10.459553416082349</v>
+        <v>9.40637273967798</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -737,91 +1355,91 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.6900415394719503</v>
+        <v>1.67255654364453</v>
       </c>
       <c r="C4">
-        <v>1.9197046888022149</v>
+        <v>1.89608761612348</v>
       </c>
       <c r="D4">
-        <v>2.1458227550179978</v>
+        <v>2.11589634559938</v>
       </c>
       <c r="E4">
-        <v>2.3666956278910307</v>
+        <v>2.33096019026934</v>
       </c>
       <c r="F4">
-        <v>2.5810852953457362</v>
+        <v>2.54090478672517</v>
       </c>
       <c r="G4">
-        <v>2.7640788287189069</v>
+        <v>2.72336992876161</v>
       </c>
       <c r="H4">
-        <v>2.9351613146609647</v>
+        <v>2.89766475524438</v>
       </c>
       <c r="I4">
-        <v>3.0868916411950131</v>
+        <v>3.06369008173814</v>
       </c>
       <c r="J4">
-        <v>3.2287943019812535</v>
+        <v>3.21986100162234</v>
       </c>
       <c r="K4">
-        <v>3.367761500979356</v>
+        <v>3.38011958840573</v>
       </c>
       <c r="L4">
-        <v>3.5001933397236575</v>
+        <v>3.54261730594596</v>
       </c>
       <c r="M4">
-        <v>3.6239611024394209</v>
+        <v>3.7070072757861</v>
       </c>
       <c r="N4">
-        <v>3.7394006177108912</v>
+        <v>3.8753584295884</v>
       </c>
       <c r="O4">
-        <v>3.8467761366036162</v>
+        <v>4.04982241074079</v>
       </c>
       <c r="P4">
-        <v>3.9456623559744899</v>
+        <v>4.23361103974185</v>
       </c>
       <c r="Q4">
-        <v>4.0297096854054999</v>
+        <v>4.42854363439577</v>
       </c>
       <c r="R4">
-        <v>4.1099606301084552</v>
+        <v>4.6367562156703</v>
       </c>
       <c r="S4">
-        <v>4.1860833175063874</v>
+        <v>4.86023034410433</v>
       </c>
       <c r="T4">
-        <v>4.2578483501594846</v>
+        <v>5.05124474161192</v>
       </c>
       <c r="U4">
-        <v>4.3249521661829373</v>
+        <v>5.05164848402238</v>
       </c>
       <c r="V4">
-        <v>4.3891492211340406</v>
+        <v>5.05536698895539</v>
       </c>
       <c r="W4">
-        <v>4.4505081749360622</v>
+        <v>5.06260930841179</v>
       </c>
       <c r="X4">
-        <v>4.5076651415732201</v>
+        <v>5.06915809159993</v>
       </c>
       <c r="Y4">
-        <v>4.559579344842839</v>
+        <v>5.0725007371106</v>
       </c>
       <c r="Z4">
-        <v>4.6081798844408786</v>
+        <v>5.08064695779685</v>
       </c>
       <c r="AA4">
-        <v>4.6540502012336171</v>
+        <v>5.09560347462593</v>
       </c>
       <c r="AB4">
-        <v>4.696690736275781</v>
+        <v>5.11672597718371</v>
       </c>
       <c r="AC4">
-        <v>4.735558424724343</v>
+        <v>5.14180541983025</v>
       </c>
       <c r="AD4">
-        <v>5.7338670458122385</v>
+        <v>5.16929417386063</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -829,91 +1447,91 @@
         <v>32</v>
       </c>
       <c r="B5">
-        <v>44.444962240000002</v>
+        <v>44.44496224</v>
       </c>
       <c r="C5">
-        <v>45.022812495856861</v>
+        <v>45.0228124958569</v>
       </c>
       <c r="D5">
-        <v>45.640373349080228</v>
+        <v>45.6403733490802</v>
       </c>
       <c r="E5">
-        <v>46.302104679335464</v>
+        <v>46.3021046793355</v>
       </c>
       <c r="F5">
-        <v>46.993966576218085</v>
+        <v>46.9939665762181</v>
       </c>
       <c r="G5">
-        <v>47.713935473283811</v>
+        <v>47.7139354732838</v>
       </c>
       <c r="H5">
-        <v>48.450771195356189</v>
+        <v>48.4507711953562</v>
       </c>
       <c r="I5">
-        <v>49.204872213734021</v>
+        <v>49.204872213734</v>
       </c>
       <c r="J5">
-        <v>49.975552577771417</v>
+        <v>49.9755525777715</v>
       </c>
       <c r="K5">
-        <v>50.746719027313688</v>
+        <v>50.7467190273137</v>
       </c>
       <c r="L5">
-        <v>51.517796799820381</v>
+        <v>51.5177967998204</v>
       </c>
       <c r="M5">
-        <v>52.288744381555865</v>
+        <v>52.2887443815559</v>
       </c>
       <c r="N5">
-        <v>53.057548573612657</v>
+        <v>53.0575485736127</v>
       </c>
       <c r="O5">
-        <v>53.823958025968892</v>
+        <v>53.8239580259689</v>
       </c>
       <c r="P5">
-        <v>54.573352969931285</v>
+        <v>54.5733529699313</v>
       </c>
       <c r="Q5">
-        <v>55.305233347236694</v>
+        <v>55.3052333472368</v>
       </c>
       <c r="R5">
-        <v>56.019329860332498</v>
+        <v>56.0193298603326</v>
       </c>
       <c r="S5">
-        <v>56.71496839507067</v>
+        <v>56.7149683950707</v>
       </c>
       <c r="T5">
-        <v>57.391745115218903</v>
+        <v>57.391745115219</v>
       </c>
       <c r="U5">
-        <v>58.034295209233761</v>
+        <v>58.0342952092338</v>
       </c>
       <c r="V5">
-        <v>58.641439139683143</v>
+        <v>58.6414391396832</v>
       </c>
       <c r="W5">
-        <v>59.212647823147435</v>
+        <v>59.2126478231475</v>
       </c>
       <c r="X5">
-        <v>59.747688761924458</v>
+        <v>59.7476887619245</v>
       </c>
       <c r="Y5">
-        <v>60.246733718838698</v>
+        <v>60.2467337188388</v>
       </c>
       <c r="Z5">
-        <v>60.715680375394406</v>
+        <v>60.7156803753945</v>
       </c>
       <c r="AA5">
-        <v>61.154908430733975</v>
+        <v>61.154908430734</v>
       </c>
       <c r="AB5">
-        <v>61.564717264946715</v>
+        <v>61.5647172649468</v>
       </c>
       <c r="AC5">
-        <v>61.945802834406457</v>
+        <v>61.9458028344065</v>
       </c>
       <c r="AD5">
-        <v>62.299140292072977</v>
+        <v>62.299140292073</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -921,91 +1539,91 @@
         <v>33</v>
       </c>
       <c r="B6">
-        <v>93.811318911340507</v>
+        <v>93.8113189113405</v>
       </c>
       <c r="C6">
-        <v>97.747639178286505</v>
+        <v>97.7476391782865</v>
       </c>
       <c r="D6">
-        <v>101.59538004714565</v>
+        <v>101.595380047146</v>
       </c>
       <c r="E6">
-        <v>105.43291802358769</v>
+        <v>105.432918023588</v>
       </c>
       <c r="F6">
-        <v>109.26025310761266</v>
+        <v>109.260253107613</v>
       </c>
       <c r="G6">
-        <v>111.36192687994711</v>
+        <v>111.361926879947</v>
       </c>
       <c r="H6">
-        <v>113.32887523770782</v>
+        <v>113.328875237708</v>
       </c>
       <c r="I6">
-        <v>115.21285909583209</v>
+        <v>115.212859095832</v>
       </c>
       <c r="J6">
-        <v>117.08965864101691</v>
+        <v>117.089658641017</v>
       </c>
       <c r="K6">
-        <v>119.14265039160979</v>
+        <v>119.14265039161</v>
       </c>
       <c r="L6">
-        <v>121.18931885625193</v>
+        <v>121.189318856252</v>
       </c>
       <c r="M6">
-        <v>123.13213228800188</v>
+        <v>123.132132288002</v>
       </c>
       <c r="N6">
-        <v>125.02028014400949</v>
+        <v>125.020280144009</v>
       </c>
       <c r="O6">
-        <v>126.89355011042636</v>
+        <v>126.893550110426</v>
       </c>
       <c r="P6">
-        <v>128.76836653179004</v>
+        <v>128.76836653179</v>
       </c>
       <c r="Q6">
-        <v>130.62026582164714</v>
+        <v>130.620265821647</v>
       </c>
       <c r="R6">
-        <v>132.44785321675644</v>
+        <v>132.447853216756</v>
       </c>
       <c r="S6">
-        <v>134.24223768940803</v>
+        <v>134.242237689408</v>
       </c>
       <c r="T6">
-        <v>135.9992519702551</v>
+        <v>135.999251970255</v>
       </c>
       <c r="U6">
-        <v>137.60005214118314</v>
+        <v>137.600052141183</v>
       </c>
       <c r="V6">
-        <v>139.22010593003063</v>
+        <v>139.220105930031</v>
       </c>
       <c r="W6">
-        <v>140.86724831440583</v>
+        <v>140.867248314406</v>
       </c>
       <c r="X6">
-        <v>142.41398137613157</v>
+        <v>142.413981376132</v>
       </c>
       <c r="Y6">
-        <v>143.77996058009839</v>
+        <v>143.779960580098</v>
       </c>
       <c r="Z6">
-        <v>145.22773715212125</v>
+        <v>145.227737152121</v>
       </c>
       <c r="AA6">
-        <v>146.82633242763848</v>
+        <v>146.826332427638</v>
       </c>
       <c r="AB6">
-        <v>148.53749831852261</v>
+        <v>148.537498318523</v>
       </c>
       <c r="AC6">
-        <v>150.33344931236851</v>
+        <v>150.333449312368</v>
       </c>
       <c r="AD6">
-        <v>152.18556926931362</v>
+        <v>152.185569269314</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1013,91 +1631,91 @@
         <v>34</v>
       </c>
       <c r="B7">
-        <v>104.43899999999999</v>
+        <v>104.439</v>
       </c>
       <c r="C7">
-        <v>109.21408006452997</v>
+        <v>109.60315814609</v>
       </c>
       <c r="D7">
-        <v>112.58077013579916</v>
+        <v>113.315913120993</v>
       </c>
       <c r="E7">
-        <v>114.34401241613111</v>
+        <v>115.406193582829</v>
       </c>
       <c r="F7">
-        <v>114.46282849800951</v>
+        <v>115.862850216002</v>
       </c>
       <c r="G7">
-        <v>113.00529051353915</v>
+        <v>114.785007953355</v>
       </c>
       <c r="H7">
-        <v>109.6537467767987</v>
+        <v>111.902704636609</v>
       </c>
       <c r="I7">
-        <v>104.6626904638002</v>
+        <v>107.489328121061</v>
       </c>
       <c r="J7">
-        <v>99.42955604061018</v>
+        <v>102.114861815008</v>
       </c>
       <c r="K7">
-        <v>94.458078338579654</v>
+        <v>97.0091188242575</v>
       </c>
       <c r="L7">
-        <v>89.735174521650677</v>
+        <v>92.1586629830446</v>
       </c>
       <c r="M7">
-        <v>85.248415895568129</v>
+        <v>87.5507299338924</v>
       </c>
       <c r="N7">
-        <v>80.985995200789731</v>
+        <v>83.1731935371977</v>
       </c>
       <c r="O7">
-        <v>76.936695540750236</v>
+        <v>79.0145339603379</v>
       </c>
       <c r="P7">
-        <v>73.08986086371273</v>
+        <v>75.063807362321</v>
       </c>
       <c r="Q7">
-        <v>69.435367920527085</v>
+        <v>71.3106170942049</v>
       </c>
       <c r="R7">
-        <v>65.963599624500731</v>
+        <v>67.7450863394947</v>
       </c>
       <c r="S7">
-        <v>62.665419743275685</v>
+        <v>64.3578321225199</v>
       </c>
       <c r="T7">
-        <v>59.532148856111895</v>
+        <v>61.1399406163939</v>
       </c>
       <c r="U7">
-        <v>56.555541513306295</v>
+        <v>58.0829436855742</v>
       </c>
       <c r="V7">
-        <v>53.727764537640979</v>
+        <v>55.1787966012955</v>
       </c>
       <c r="W7">
-        <v>51.041376410758929</v>
+        <v>52.4198568712307</v>
       </c>
       <c r="X7">
-        <v>48.489307690220983</v>
+        <v>49.7988641276692</v>
       </c>
       <c r="Y7">
-        <v>46.064842405709925</v>
+        <v>47.3089210212857</v>
       </c>
       <c r="Z7">
-        <v>43.76160038542443</v>
+        <v>44.9434750702215</v>
       </c>
       <c r="AA7">
-        <v>41.573520466153205</v>
+        <v>42.6963014167104</v>
       </c>
       <c r="AB7">
-        <v>39.494844542845541</v>
+        <v>40.5614864458749</v>
       </c>
       <c r="AC7">
-        <v>37.520102415703263</v>
+        <v>39.034399867071</v>
       </c>
       <c r="AD7">
-        <v>35.644097394918099</v>
+        <v>38.2998714111014</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1105,284 +1723,279 @@
         <v>35</v>
       </c>
       <c r="B8">
-        <v>65.293999999999997</v>
+        <v>65.294</v>
       </c>
       <c r="C8">
-        <v>83.686071736776825</v>
+        <v>85.2949345985133</v>
       </c>
       <c r="D8">
-        <v>105.64925498749095</v>
+        <v>109.503493342482</v>
       </c>
       <c r="E8">
-        <v>131.26566402070893</v>
+        <v>138.078280553273</v>
       </c>
       <c r="F8">
-        <v>160.55300586600589</v>
+        <v>171.082991370582</v>
       </c>
       <c r="G8">
-        <v>193.45801281813542</v>
+        <v>208.471430466637</v>
       </c>
       <c r="H8">
-        <v>228.87023647702048</v>
+        <v>249.068206493552</v>
       </c>
       <c r="I8">
-        <v>266.2869450838009</v>
+        <v>292.253854706871</v>
       </c>
       <c r="J8">
-        <v>304.72129260995297</v>
+        <v>337.224911585032</v>
       </c>
       <c r="K8">
-        <v>343.64175887200156</v>
+        <v>382.840970430927</v>
       </c>
       <c r="L8">
-        <v>382.96087752611288</v>
+        <v>428.642686331666</v>
       </c>
       <c r="M8">
-        <v>422.511415737405</v>
+        <v>473.967485142191</v>
       </c>
       <c r="N8">
-        <v>462.08714268526586</v>
+        <v>517.97435487317</v>
       </c>
       <c r="O8">
-        <v>501.5664039892585</v>
+        <v>559.752504580663</v>
       </c>
       <c r="P8">
-        <v>540.90627479803925</v>
+        <v>598.297223730024</v>
       </c>
       <c r="Q8">
-        <v>579.9859275815038</v>
+        <v>632.465008419079</v>
       </c>
       <c r="R8">
-        <v>618.11053805568974</v>
+        <v>660.900400273539</v>
       </c>
       <c r="S8">
-        <v>655.45740686468218</v>
+        <v>682.017483174899</v>
       </c>
       <c r="T8">
-        <v>692.19951559827962</v>
+        <v>693.939565545876</v>
       </c>
       <c r="U8">
-        <v>728.50940397650584</v>
+        <v>696.996562476695</v>
       </c>
       <c r="V8">
-        <v>764.4553058148208</v>
+        <v>699.900709560974</v>
       </c>
       <c r="W8">
-        <v>800.27029679230236</v>
+        <v>702.659649291039</v>
       </c>
       <c r="X8">
-        <v>836.20883721553923</v>
+        <v>705.2806420346</v>
       </c>
       <c r="Y8">
-        <v>872.42135650141404</v>
+        <v>707.770585140984</v>
       </c>
       <c r="Z8">
-        <v>908.99149855345365</v>
+        <v>710.136031092048</v>
       </c>
       <c r="AA8">
-        <v>946.27242299990496</v>
+        <v>712.383204745559</v>
       </c>
       <c r="AB8">
-        <v>984.71619454098868</v>
+        <v>714.518019716395</v>
       </c>
       <c r="AC8">
-        <v>1024.7734663320889</v>
+        <v>716.045106295199</v>
       </c>
       <c r="AD8">
-        <v>1066.9060352079794</v>
+        <v>716.779634751168</v>
       </c>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9">
-        <v>3399.1499999999996</v>
+        <v>3399.15</v>
       </c>
       <c r="C9">
-        <v>3422.3171518013069</v>
+        <v>3424.3150927446</v>
       </c>
       <c r="D9">
-        <v>3447.6470251232899</v>
+        <v>3452.23640646347</v>
       </c>
       <c r="E9">
-        <v>3475.0266764368398</v>
+        <v>3482.9014741361</v>
       </c>
       <c r="F9">
-        <v>3504.4328343640154</v>
+        <v>3516.36284158658</v>
       </c>
       <c r="G9">
-        <v>3535.8803033316744</v>
+        <v>3552.67343841999</v>
       </c>
       <c r="H9">
-        <v>3567.940983253819</v>
+        <v>3590.38791113016</v>
       </c>
       <c r="I9">
-        <v>3600.3666355476012</v>
+        <v>3629.16018282793</v>
       </c>
       <c r="J9">
-        <v>3633.5678486505631</v>
+        <v>3668.75677340004</v>
       </c>
       <c r="K9">
-        <v>3667.5168372105813</v>
+        <v>3709.26708925518</v>
       </c>
       <c r="L9">
-        <v>3702.1130520477636</v>
+        <v>3750.21834931471</v>
       </c>
       <c r="M9">
-        <v>3737.1768316329731</v>
+        <v>3790.93521507608</v>
       </c>
       <c r="N9">
-        <v>3772.4901378860554</v>
+        <v>3830.56454841037</v>
       </c>
       <c r="O9">
-        <v>3807.9200995300089</v>
+        <v>3868.184038541</v>
       </c>
       <c r="P9">
-        <v>3843.4131356617518</v>
+        <v>3902.77803109235</v>
       </c>
       <c r="Q9">
-        <v>3879.0739606602247</v>
+        <v>3933.19262551328</v>
       </c>
       <c r="R9">
-        <v>3915.3947007527786</v>
+        <v>3958.06248661303</v>
       </c>
       <c r="S9">
-        <v>3952.2668266321621</v>
+        <v>3975.79231529742</v>
       </c>
       <c r="T9">
-        <v>3989.6433127227806</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="U9">
-        <v>4027.5278992053368</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="V9">
-        <v>4065.8277930665554</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="W9">
-        <v>4104.6958005897477</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="X9">
-        <v>4144.334000589537</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="Y9">
-        <v>4184.8270344021348</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="Z9">
-        <v>4226.187081522321</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="AA9">
-        <v>4268.7804877920653</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="AB9">
-        <v>4313.1032433413211</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="AC9">
-        <v>4359.6492431623983</v>
+        <v>3984.49650616227</v>
       </c>
       <c r="AD9">
-        <v>4408.9231016911481</v>
+        <v>3984.49650616227</v>
       </c>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10">
-        <v>4.0731209999999995</v>
+        <v>4.073121</v>
       </c>
       <c r="C10">
-        <v>4.2593491225166682</v>
+        <v>4.27452316769749</v>
       </c>
       <c r="D10">
-        <v>4.3906500352961668</v>
+        <v>4.41932061171871</v>
       </c>
       <c r="E10">
-        <v>4.4594164842291129</v>
+        <v>4.50084154973031</v>
       </c>
       <c r="F10">
-        <v>4.4640503114223709</v>
+        <v>4.51865115842407</v>
       </c>
       <c r="G10">
-        <v>4.4072063300280266</v>
+        <v>4.47661531018084</v>
       </c>
       <c r="H10">
-        <v>4.2764961242951491</v>
+        <v>4.36420548082776</v>
       </c>
       <c r="I10">
-        <v>4.0818449280882074</v>
+        <v>4.19208379672138</v>
       </c>
       <c r="J10">
-        <v>3.8777526855837969</v>
+        <v>3.98247961078531</v>
       </c>
       <c r="K10">
-        <v>3.6838650552046066</v>
+        <v>3.78335563414604</v>
       </c>
       <c r="L10">
-        <v>3.4996718063443764</v>
+        <v>3.59418785633874</v>
       </c>
       <c r="M10">
-        <v>3.3246882199271575</v>
+        <v>3.4144784674218</v>
       </c>
       <c r="N10">
-        <v>3.1584538128307993</v>
+        <v>3.24375454795071</v>
       </c>
       <c r="O10">
-        <v>3.0005311260892591</v>
+        <v>3.08156682445318</v>
       </c>
       <c r="P10">
-        <v>2.8505045736847965</v>
+        <v>2.92748848713052</v>
       </c>
       <c r="Q10">
-        <v>2.7079793489005564</v>
+        <v>2.78111406667399</v>
       </c>
       <c r="R10">
-        <v>2.5725803853555287</v>
+        <v>2.64205836724029</v>
       </c>
       <c r="S10">
-        <v>2.4439513699877518</v>
+        <v>2.50995545277828</v>
       </c>
       <c r="T10">
-        <v>2.3217538053883642</v>
+        <v>2.38445768403936</v>
       </c>
       <c r="U10">
-        <v>2.2056661190189453</v>
+        <v>2.2652348037374</v>
       </c>
       <c r="V10">
-        <v>2.095382816967998</v>
+        <v>2.15197306745052</v>
       </c>
       <c r="W10">
-        <v>1.9906136800195982</v>
+        <v>2.044374417978</v>
       </c>
       <c r="X10">
-        <v>1.8910829999186181</v>
+        <v>1.9421557009791</v>
       </c>
       <c r="Y10">
-        <v>1.7965288538226871</v>
+        <v>1.84504791983014</v>
       </c>
       <c r="Z10">
-        <v>1.7067024150315528</v>
+        <v>1.75279552773864</v>
       </c>
       <c r="AA10">
-        <v>1.6213672981799749</v>
+        <v>1.6651557552517</v>
       </c>
       <c r="AB10">
-        <v>1.5402989371709761</v>
+        <v>1.58189797138912</v>
       </c>
       <c r="AC10">
-        <v>1.4632839942124274</v>
+        <v>1.52234159481577</v>
       </c>
       <c r="AD10">
-        <v>1.3901197984018059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:30">
-      <c r="A12" s="1"/>
+        <v>1.49369498503295</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/SDG Financing Simplified model (Egypt)/v7/output/modeloutput_arg.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v7/output/modeloutput_arg.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView yWindow="2085" windowWidth="17250" windowHeight="9945"/>
+    <workbookView windowWidth="17030" windowHeight="10730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -809,6 +809,1072 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Output per Capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$AD$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>7.20982246431157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.51165500305661</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.80230525418306</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.08208221002443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.35232505233587</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.54260110515253</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.71120893745051</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.86016336390328</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9934459504287</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.12359353837921</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.24256681995524</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.34525444294598</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.43260292598602</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.50494469286603</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.56410355938303</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.60745929998407</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.63271269037288</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.63664699890861</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.61515609918516</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.56834703086827</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.52869796520963</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.49627871163798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.46632189201621</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.43592218761492</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.41330820149639</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.40053487121888</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.39596042834273</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.39832571928849</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.40637273967798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumption per Capita</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$AD$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="29"/>
+                <c:pt idx="0">
+                  <c:v>1.67255654364453</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89608761612348</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.11589634559938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.33096019026934</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.54090478672517</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.72336992876161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.89766475524438</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.06369008173814</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.21986100162234</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.38011958840573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.54261730594596</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7070072757861</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8753584295884</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.04982241074079</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.23361103974185</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.42854363439577</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.6367562156703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.86023034410433</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.05124474161192</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.05164848402238</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.05536698895539</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.06260930841179</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.06915809159993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.0725007371106</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.08064695779685</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.09560347462593</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.11672597718371</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.14180541983025</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.16929417386063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="187240386"/>
+        <c:axId val="533133178"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="187240386"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533133178"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533133178"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="187240386"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:externalData r:id="rId1">
+    <c:autoUpdate val="0"/>
+  </c:externalData>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="4904740" y="2419350"/>
+        <a:ext cx="4585335" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1071,8 +2137,8 @@
   <sheetPr/>
   <dimension ref="A1:AD10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66363636363636" defaultRowHeight="14"/>
@@ -1997,5 +3063,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>